--- a/Result_Files_Key_Word_Attempt_2/Top5_Key_words_03.10.2018.xlsx
+++ b/Result_Files_Key_Word_Attempt_2/Top5_Key_words_03.10.2018.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Chris.Cirelli\Desktop\Python Programming Docs\GSU\Sprint Project\Docket-Sheet-Classification\Result_Files_Key_Word_Attempt_2\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="20" windowWidth="16100" windowHeight="9660"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -309,8 +304,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -362,59 +357,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFD7D7D7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
-  <tableStyles count="1" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
-      <tableStyleElement type="wholeTable" dxfId="1"/>
-      <tableStyleElement type="headerRow" dxfId="0"/>
-    </tableStyle>
-  </tableStyles>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -461,7 +414,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -493,10 +446,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -528,7 +480,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -704,51 +655,49 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M8" sqref="M8"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12" s="2" customFormat="1" ht="29" x14ac:dyDescent="0.35">
-      <c r="B1" s="3" t="s">
+    <row r="1" spans="1:12">
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="J1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="K1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="L1" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:12">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -786,7 +735,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:12">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -824,7 +773,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:12">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -862,7 +811,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:12">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -900,7 +849,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:12">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -938,7 +887,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:12">
       <c r="A7" s="1">
         <v>1</v>
       </c>
@@ -976,7 +925,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:12">
       <c r="A8" s="1">
         <v>2</v>
       </c>
@@ -1014,7 +963,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:12">
       <c r="A9" s="1">
         <v>3</v>
       </c>
@@ -1052,7 +1001,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:12">
       <c r="A10" s="1">
         <v>4</v>
       </c>
@@ -1090,7 +1039,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:12">
       <c r="A11" s="1">
         <v>5</v>
       </c>
@@ -1128,7 +1077,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:12">
       <c r="A12" s="1">
         <v>1</v>
       </c>
@@ -1166,7 +1115,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:12">
       <c r="A13" s="1">
         <v>2</v>
       </c>
@@ -1204,7 +1153,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:12">
       <c r="A14" s="1">
         <v>3</v>
       </c>
@@ -1242,7 +1191,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:12">
       <c r="A15" s="1">
         <v>4</v>
       </c>
@@ -1280,7 +1229,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:12">
       <c r="A16" s="1">
         <v>5</v>
       </c>
